--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J2">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>96.22427860813133</v>
+        <v>1.392373147022667</v>
       </c>
       <c r="R2">
-        <v>866.0185074731819</v>
+        <v>12.531358323204</v>
       </c>
       <c r="S2">
-        <v>0.173018933286188</v>
+        <v>0.002115045964116816</v>
       </c>
       <c r="T2">
-        <v>0.173018933286188</v>
+        <v>0.002115045964116817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J3">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>124.6236082874494</v>
+        <v>1.226761034062667</v>
       </c>
       <c r="R3">
-        <v>1121.612474587044</v>
+        <v>11.040849306564</v>
       </c>
       <c r="S3">
-        <v>0.22408319480348</v>
+        <v>0.00186347745902613</v>
       </c>
       <c r="T3">
-        <v>0.22408319480348</v>
+        <v>0.001863477459026131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J4">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>35.42991971313367</v>
+        <v>0.387078004145</v>
       </c>
       <c r="R4">
-        <v>318.869277418203</v>
+        <v>3.483702037305</v>
       </c>
       <c r="S4">
-        <v>0.06370582355983138</v>
+        <v>0.0005879801490109799</v>
       </c>
       <c r="T4">
-        <v>0.06370582355983138</v>
+        <v>0.0005879801490109801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J5">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>78.17023272797466</v>
+        <v>0.514618736898</v>
       </c>
       <c r="R5">
-        <v>703.532094551772</v>
+        <v>4.631568632082</v>
       </c>
       <c r="S5">
-        <v>0.140556317770974</v>
+        <v>0.0007817173757354066</v>
       </c>
       <c r="T5">
-        <v>0.140556317770974</v>
+        <v>0.0007817173757354069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H6">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>42.92486774259133</v>
+        <v>141.4477317476093</v>
       </c>
       <c r="R6">
-        <v>386.3238096833219</v>
+        <v>1273.029585728484</v>
       </c>
       <c r="S6">
-        <v>0.07718233834227216</v>
+        <v>0.2148622693607498</v>
       </c>
       <c r="T6">
-        <v>0.07718233834227216</v>
+        <v>0.2148622693607499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H7">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>55.59357763676934</v>
+        <v>124.6236082874493</v>
       </c>
       <c r="R7">
-        <v>500.3421987309241</v>
+        <v>1121.612474587044</v>
       </c>
       <c r="S7">
-        <v>0.09996168991246547</v>
+        <v>0.1893060493917682</v>
       </c>
       <c r="T7">
-        <v>0.09996168991246548</v>
+        <v>0.1893060493917683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H8">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>15.80499890272367</v>
+        <v>39.32229360554501</v>
       </c>
       <c r="R8">
-        <v>142.244990124513</v>
+        <v>353.900642449905</v>
       </c>
       <c r="S8">
-        <v>0.02841864953724412</v>
+        <v>0.05973144380733344</v>
       </c>
       <c r="T8">
-        <v>0.02841864953724412</v>
+        <v>0.05973144380733347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H9">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>34.87110477513466</v>
+        <v>52.278840054258</v>
       </c>
       <c r="R9">
-        <v>313.839942976212</v>
+        <v>470.5095604883219</v>
       </c>
       <c r="S9">
-        <v>0.06270102969828713</v>
+        <v>0.07941272776044631</v>
       </c>
       <c r="T9">
-        <v>0.06270102969828713</v>
+        <v>0.07941272776044635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H10">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>20.86082348147466</v>
+        <v>65.37303094162577</v>
       </c>
       <c r="R10">
-        <v>187.747411333272</v>
+        <v>588.3572784746319</v>
       </c>
       <c r="S10">
-        <v>0.03750942567140438</v>
+        <v>0.09930309669561477</v>
       </c>
       <c r="T10">
-        <v>0.03750942567140438</v>
+        <v>0.09930309669561482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H11">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>27.01762103820267</v>
+        <v>57.5974100112791</v>
       </c>
       <c r="R11">
-        <v>243.158589343824</v>
+        <v>518.3766901015119</v>
       </c>
       <c r="S11">
-        <v>0.0485798390965051</v>
+        <v>0.08749175452602592</v>
       </c>
       <c r="T11">
-        <v>0.0485798390965051</v>
+        <v>0.08749175452602596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H12">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>7.680985628465333</v>
+        <v>18.17362134274333</v>
       </c>
       <c r="R12">
-        <v>69.128870656188</v>
+        <v>163.56259208469</v>
       </c>
       <c r="S12">
-        <v>0.01381102523444962</v>
+        <v>0.02760613744709828</v>
       </c>
       <c r="T12">
-        <v>0.01381102523444962</v>
+        <v>0.02760613744709829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.424064666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.272194</v>
+      </c>
+      <c r="I13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="J13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.966758</v>
+      </c>
+      <c r="N13">
+        <v>50.900274</v>
+      </c>
+      <c r="O13">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="P13">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="Q13">
+        <v>24.161760575684</v>
+      </c>
+      <c r="R13">
+        <v>217.455845181156</v>
+      </c>
+      <c r="S13">
+        <v>0.03670225492414306</v>
+      </c>
+      <c r="T13">
+        <v>0.03670225492414307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.135585</v>
+      </c>
+      <c r="H14">
+        <v>3.406755</v>
+      </c>
+      <c r="I14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.90594266666667</v>
+      </c>
+      <c r="N14">
+        <v>137.717828</v>
+      </c>
+      <c r="O14">
+        <v>0.3954672001633582</v>
+      </c>
+      <c r="P14">
+        <v>0.3954672001633583</v>
+      </c>
+      <c r="Q14">
+        <v>52.13009990312667</v>
+      </c>
+      <c r="R14">
+        <v>469.17089912814</v>
+      </c>
+      <c r="S14">
+        <v>0.07918678814287676</v>
+      </c>
+      <c r="T14">
+        <v>0.07918678814287677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.135585</v>
+      </c>
+      <c r="H15">
+        <v>3.406755</v>
+      </c>
+      <c r="I15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.44578266666667</v>
+      </c>
+      <c r="N15">
+        <v>121.337348</v>
+      </c>
+      <c r="O15">
+        <v>0.3484294080560655</v>
+      </c>
+      <c r="P15">
+        <v>0.3484294080560656</v>
+      </c>
+      <c r="Q15">
+        <v>45.92962410952667</v>
+      </c>
+      <c r="R15">
+        <v>413.36661698574</v>
+      </c>
+      <c r="S15">
+        <v>0.06976812667924526</v>
+      </c>
+      <c r="T15">
+        <v>0.06976812667924527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6679959999999999</v>
-      </c>
-      <c r="H13">
-        <v>2.003988</v>
-      </c>
-      <c r="I13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="J13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>25.36964133333333</v>
-      </c>
-      <c r="N13">
-        <v>76.108924</v>
-      </c>
-      <c r="O13">
-        <v>0.2337290805561597</v>
-      </c>
-      <c r="P13">
-        <v>0.2337290805561597</v>
-      </c>
-      <c r="Q13">
-        <v>16.94681893210133</v>
-      </c>
-      <c r="R13">
-        <v>152.521370388912</v>
-      </c>
-      <c r="S13">
-        <v>0.03047173308689863</v>
-      </c>
-      <c r="T13">
-        <v>0.03047173308689864</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.135585</v>
+      </c>
+      <c r="H16">
+        <v>3.406755</v>
+      </c>
+      <c r="I16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.761795</v>
+      </c>
+      <c r="N16">
+        <v>38.28538500000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1099393900775594</v>
+      </c>
+      <c r="P16">
+        <v>0.1099393900775594</v>
+      </c>
+      <c r="Q16">
+        <v>14.492102975075</v>
+      </c>
+      <c r="R16">
+        <v>130.428926775675</v>
+      </c>
+      <c r="S16">
+        <v>0.0220138286741167</v>
+      </c>
+      <c r="T16">
+        <v>0.02201382867411671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.135585</v>
+      </c>
+      <c r="H17">
+        <v>3.406755</v>
+      </c>
+      <c r="I17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.966758</v>
+      </c>
+      <c r="N17">
+        <v>50.900274</v>
+      </c>
+      <c r="O17">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="P17">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="Q17">
+        <v>19.26719588343</v>
+      </c>
+      <c r="R17">
+        <v>173.40476295087</v>
+      </c>
+      <c r="S17">
+        <v>0.02926730164269202</v>
+      </c>
+      <c r="T17">
+        <v>0.02926730164269203</v>
       </c>
     </row>
   </sheetData>
